--- a/syllabus/demog280 - 2025.xlsx
+++ b/syllabus/demog280 - 2025.xlsx
@@ -450,7 +450,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[Social Capital and SOWT: Contemporary](#sec:sowt-contemporary)</t>
+          <t>NO CLASS - [Project check-in](#sec:projectpitch)</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[Scale-free networks and other models of time](#sec:netform-time)</t>
+          <t>[Social Capital and SOWT: Contemporary](#sec:sowt-contemporary)</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[Simple contagion](#sec:simple-contagion)</t>
+          <t>[Scale-free networks and other models of time](#sec:netform-time)</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[Complex contagion](#sec:complex-contagion)</t>
+          <t>[Simple contagion](#sec:simple-contagion)</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[Project check-in](#sec:projectpitch)</t>
+          <t>[Complex contagion](#sec:complex-contagion)</t>
         </is>
       </c>
     </row>
